--- a/Tópicos Especiais/Git and GitHub/Accounts on GitHub.xlsx
+++ b/Tópicos Especiais/Git and GitHub/Accounts on GitHub.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>Aluno</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>GitHub.io</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -549,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +565,7 @@
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -573,7 +576,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -581,8 +584,11 @@
         <v>35</v>
       </c>
       <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -590,30 +596,35 @@
         <v>53</v>
       </c>
       <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -621,8 +632,11 @@
         <v>50</v>
       </c>
       <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -630,8 +644,11 @@
         <v>34</v>
       </c>
       <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -639,8 +656,11 @@
         <v>38</v>
       </c>
       <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -648,8 +668,11 @@
         <v>44</v>
       </c>
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -657,19 +680,23 @@
         <v>37</v>
       </c>
       <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -677,8 +704,11 @@
         <v>46</v>
       </c>
       <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -686,8 +716,11 @@
         <v>31</v>
       </c>
       <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -695,8 +728,11 @@
         <v>36</v>
       </c>
       <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -704,8 +740,11 @@
         <v>45</v>
       </c>
       <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -713,8 +752,11 @@
         <v>52</v>
       </c>
       <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -722,19 +764,23 @@
         <v>51</v>
       </c>
       <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -742,8 +788,11 @@
         <v>48</v>
       </c>
       <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -751,8 +800,11 @@
         <v>42</v>
       </c>
       <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -762,8 +814,11 @@
       <c r="C21" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -771,30 +826,35 @@
         <v>33</v>
       </c>
       <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -802,19 +862,20 @@
         <v>56</v>
       </c>
       <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -823,7 +884,7 @@
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -832,14 +893,16 @@
       </c>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
